--- a/biology/Zoologie/Callionima_pan/Callionima_pan.xlsx
+++ b/biology/Zoologie/Callionima_pan/Callionima_pan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callionima pan est une espèce de lépidoptères (papillons) de la famille des Sphingidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est d'environ 64 mm. La face dorsale de l'aile antérieure , l'apex est tronqué à sa partie postérieur, immédiatement en arrière, le bord externe semble fortement rentrer; comparé à Callionima denticulata, la marge externe n'est que légèrement dentelée. La page supérieure montre une zone costale triangulaire pâle en face du point argenté et une seconde zone côtière plus petite à la hauteur de la bifurcation sous-costale. La bande de lunules brun pâle, distale à l'apex de la cellule discoïdale, est à peine visible ou absente. Sur la page inférieure, les zones basale et distale sont sombres (D'Abrera, 1986). 
 Dans l'aile arrière, l'apex est aigu et finement pointillé; la tache anale noire a moins de 1,5 mm de large.
@@ -545,7 +559,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est connue au Mexique, au Guatemala, Costa Rica, Venezuela, en Guyane et au sud au Brésil.
 </t>
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a probablement deux à trois générations par an, avec des adultes qui volent en juin et d'octobre à janvier au Costa Rica.
 Les chenielles se nourrissent probablement d’espèces d’Apocynaceae.
@@ -608,14 +626,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste allemand Pieter Cramer 1779 sous le nom initial de Sphinx pan[1]. La localité type est le Surinam.
-Synonymie
-Sphinx pan Cramer, 1779 protonyme
-Calliomma pan neivai Oiticica Filho, 1940[2]
-Liste des sous-espèces
-Callionima pan pan
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par l'entomologiste allemand Pieter Cramer 1779 sous le nom initial de Sphinx pan. La localité type est le Surinam.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callionima_pan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callionima_pan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sphinx pan Cramer, 1779 protonyme
+Calliomma pan neivai Oiticica Filho, 1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callionima_pan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callionima_pan</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Callionima pan pan
 Callionima pan neivai Oiticica Filho, 1940 (Brésil)</t>
         </is>
       </c>
